--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Efna4-Epha4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Efna4-Epha4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,16 +85,16 @@
     <t>MuSCs</t>
   </si>
   <si>
-    <t>Neutrophils</t>
+    <t>Efna4</t>
+  </si>
+  <si>
+    <t>Epha4</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Efna4</t>
-  </si>
-  <si>
-    <t>Epha4</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.973732</v>
+        <v>0.595027</v>
       </c>
       <c r="H2">
-        <v>3.947464</v>
+        <v>1.190054</v>
       </c>
       <c r="I2">
-        <v>0.4893579329828272</v>
+        <v>0.3721518773584837</v>
       </c>
       <c r="J2">
-        <v>0.4031433519344368</v>
+        <v>0.3173844652954502</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.4223555</v>
+        <v>6.9192795</v>
       </c>
       <c r="N2">
-        <v>20.844711</v>
+        <v>13.838559</v>
       </c>
       <c r="O2">
-        <v>0.5134583541362048</v>
+        <v>0.6281451873364243</v>
       </c>
       <c r="P2">
-        <v>0.4269921487868165</v>
+        <v>0.5718408792853329</v>
       </c>
       <c r="Q2">
-        <v>20.570936565726</v>
+        <v>4.1171581230465</v>
       </c>
       <c r="R2">
-        <v>82.283746262904</v>
+        <v>16.468632492186</v>
       </c>
       <c r="S2">
-        <v>0.2512649188528577</v>
+        <v>0.2337654107209468</v>
       </c>
       <c r="T2">
-        <v>0.172139046111605</v>
+        <v>0.1814934117060555</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.973732</v>
+        <v>0.595027</v>
       </c>
       <c r="H3">
-        <v>3.947464</v>
+        <v>1.190054</v>
       </c>
       <c r="I3">
-        <v>0.4893579329828272</v>
+        <v>0.3721518773584837</v>
       </c>
       <c r="J3">
-        <v>0.4031433519344368</v>
+        <v>0.3173844652954502</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>6.248004</v>
       </c>
       <c r="O3">
-        <v>0.1026028409309336</v>
+        <v>0.1890685122662809</v>
       </c>
       <c r="P3">
-        <v>0.1279868381762944</v>
+        <v>0.2581818021036928</v>
       </c>
       <c r="Q3">
-        <v>4.110628476976</v>
+        <v>1.239243692036</v>
       </c>
       <c r="R3">
-        <v>24.663770861856</v>
+        <v>7.435462152215999</v>
       </c>
       <c r="S3">
-        <v>0.0502095141561275</v>
+        <v>0.07036220178927195</v>
       </c>
       <c r="T3">
-        <v>0.05159704294588167</v>
+        <v>0.08194289320969628</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,14 +649,14 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>25</v>
       </c>
-      <c r="C4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
       <c r="E4">
         <v>2</v>
       </c>
@@ -664,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.973732</v>
+        <v>0.595027</v>
       </c>
       <c r="H4">
-        <v>3.947464</v>
+        <v>1.190054</v>
       </c>
       <c r="I4">
-        <v>0.4893579329828272</v>
+        <v>0.3721518773584837</v>
       </c>
       <c r="J4">
-        <v>0.4031433519344368</v>
+        <v>0.3173844652954502</v>
       </c>
       <c r="K4">
         <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>1.6551325</v>
+        <v>0.07724199999999999</v>
       </c>
       <c r="N4">
-        <v>3.310265</v>
+        <v>0.231726</v>
       </c>
       <c r="O4">
-        <v>0.0815402630746324</v>
+        <v>0.007012173819577614</v>
       </c>
       <c r="P4">
-        <v>0.0678089115941109</v>
+        <v>0.009575447818900294</v>
       </c>
       <c r="Q4">
-        <v>3.26678797949</v>
+        <v>0.04596107553399999</v>
       </c>
       <c r="R4">
-        <v>13.06715191796</v>
+        <v>0.275766453204</v>
       </c>
       <c r="S4">
-        <v>0.03990237459307806</v>
+        <v>0.002609593651319819</v>
       </c>
       <c r="T4">
-        <v>0.02733671191107577</v>
+        <v>0.003039098385966155</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,13 +711,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -726,46 +726,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.973732</v>
+        <v>0.595027</v>
       </c>
       <c r="H5">
-        <v>3.947464</v>
+        <v>1.190054</v>
       </c>
       <c r="I5">
-        <v>0.4893579329828272</v>
+        <v>0.3721518773584837</v>
       </c>
       <c r="J5">
-        <v>0.4031433519344368</v>
+        <v>0.3173844652954502</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.111548333333334</v>
+        <v>1.9269465</v>
       </c>
       <c r="N5">
-        <v>18.334645</v>
+        <v>3.853893</v>
       </c>
       <c r="O5">
-        <v>0.3010860211453351</v>
+        <v>0.1749318220531151</v>
       </c>
       <c r="P5">
-        <v>0.3755748624096281</v>
+        <v>0.1592516649884999</v>
       </c>
       <c r="Q5">
-        <v>12.06255851504667</v>
+        <v>1.1465851950555</v>
       </c>
       <c r="R5">
-        <v>72.37535109028001</v>
+        <v>4.586340780222</v>
       </c>
       <c r="S5">
-        <v>0.147338832957705</v>
+        <v>0.06510120598680699</v>
       </c>
       <c r="T5">
-        <v>0.1514105089341324</v>
+        <v>0.0505440045397852</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,14 +773,14 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
         <v>26</v>
       </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
       <c r="E6">
         <v>2</v>
       </c>
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.973732</v>
+        <v>0.595027</v>
       </c>
       <c r="H6">
-        <v>3.947464</v>
+        <v>1.190054</v>
       </c>
       <c r="I6">
-        <v>0.4893579329828272</v>
+        <v>0.3721518773584837</v>
       </c>
       <c r="J6">
-        <v>0.4031433519344368</v>
+        <v>0.3173844652954502</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -806,28 +806,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.026642</v>
+        <v>0.009278333333333333</v>
       </c>
       <c r="N6">
-        <v>0.079926</v>
+        <v>0.027835</v>
       </c>
       <c r="O6">
-        <v>0.001312520712894198</v>
+        <v>0.0008423045246020856</v>
       </c>
       <c r="P6">
-        <v>0.001637239033150188</v>
+        <v>0.001150205803574436</v>
       </c>
       <c r="Q6">
-        <v>0.052584167944</v>
+        <v>0.005520858848333332</v>
       </c>
       <c r="R6">
-        <v>0.315505007664</v>
+        <v>0.03312515309</v>
       </c>
       <c r="S6">
-        <v>0.0006422924230590516</v>
+        <v>0.0003134652101382113</v>
       </c>
       <c r="T6">
-        <v>0.0006600420317420634</v>
+        <v>0.0003650574539471959</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -856,10 +856,10 @@
         <v>1.655405</v>
       </c>
       <c r="I7">
-        <v>0.1368111390079702</v>
+        <v>0.3451171563299485</v>
       </c>
       <c r="J7">
-        <v>0.1690618383116417</v>
+        <v>0.441492428723751</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>10.4223555</v>
+        <v>6.9192795</v>
       </c>
       <c r="N7">
-        <v>20.844711</v>
+        <v>13.838559</v>
       </c>
       <c r="O7">
-        <v>0.5134583541362048</v>
+        <v>0.6281451873364243</v>
       </c>
       <c r="P7">
-        <v>0.4269921487868165</v>
+        <v>0.5718408792853329</v>
       </c>
       <c r="Q7">
-        <v>5.7510731354925</v>
+        <v>3.8180699602325</v>
       </c>
       <c r="R7">
-        <v>34.506438812955</v>
+        <v>22.908419761395</v>
       </c>
       <c r="S7">
-        <v>0.07024682226253189</v>
+        <v>0.2167836808158895</v>
       </c>
       <c r="T7">
-        <v>0.07218807761853722</v>
+        <v>0.2524634186392069</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -918,10 +918,10 @@
         <v>1.655405</v>
       </c>
       <c r="I8">
-        <v>0.1368111390079702</v>
+        <v>0.3451171563299485</v>
       </c>
       <c r="J8">
-        <v>0.1690618383116417</v>
+        <v>0.441492428723751</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>6.248004</v>
       </c>
       <c r="O8">
-        <v>0.1026028409309336</v>
+        <v>0.1890685122662809</v>
       </c>
       <c r="P8">
-        <v>0.1279868381762944</v>
+        <v>0.2581818021036928</v>
       </c>
       <c r="Q8">
         <v>1.149219673513333</v>
@@ -948,10 +948,10 @@
         <v>10.34297706162</v>
       </c>
       <c r="S8">
-        <v>0.01403721153321461</v>
+        <v>0.06525078730487287</v>
       </c>
       <c r="T8">
-        <v>0.02163769014177894</v>
+        <v>0.1139853108630342</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +959,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,40 +980,40 @@
         <v>1.655405</v>
       </c>
       <c r="I9">
-        <v>0.1368111390079702</v>
+        <v>0.3451171563299485</v>
       </c>
       <c r="J9">
-        <v>0.1690618383116417</v>
+        <v>0.441492428723751</v>
       </c>
       <c r="K9">
         <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>1.6551325</v>
+        <v>0.07724199999999999</v>
       </c>
       <c r="N9">
-        <v>3.310265</v>
+        <v>0.231726</v>
       </c>
       <c r="O9">
-        <v>0.0815402630746324</v>
+        <v>0.007012173819577614</v>
       </c>
       <c r="P9">
-        <v>0.0678089115941109</v>
+        <v>0.009575447818900294</v>
       </c>
       <c r="Q9">
-        <v>0.9133048720541667</v>
+        <v>0.04262226433666666</v>
       </c>
       <c r="R9">
-        <v>5.479829232325001</v>
+        <v>0.38360037903</v>
       </c>
       <c r="S9">
-        <v>0.01115561626624999</v>
+        <v>0.002420021488303939</v>
       </c>
       <c r="T9">
-        <v>0.01146389924801198</v>
+        <v>0.004227487713683835</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,13 +1021,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1042,40 +1042,40 @@
         <v>1.655405</v>
       </c>
       <c r="I10">
-        <v>0.1368111390079702</v>
+        <v>0.3451171563299485</v>
       </c>
       <c r="J10">
-        <v>0.1690618383116417</v>
+        <v>0.441492428723751</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>6.111548333333334</v>
+        <v>1.9269465</v>
       </c>
       <c r="N10">
-        <v>18.334645</v>
+        <v>3.853893</v>
       </c>
       <c r="O10">
-        <v>0.3010860211453351</v>
+        <v>0.1749318220531151</v>
       </c>
       <c r="P10">
-        <v>0.3755748624096281</v>
+        <v>0.1592516649884999</v>
       </c>
       <c r="Q10">
-        <v>3.372362556247222</v>
+        <v>1.0632922902775</v>
       </c>
       <c r="R10">
-        <v>30.351263006225</v>
+        <v>6.379753741665001</v>
       </c>
       <c r="S10">
-        <v>0.04119192149227108</v>
+        <v>0.06037197297858766</v>
       </c>
       <c r="T10">
-        <v>0.06349537666261362</v>
+        <v>0.07030840435407394</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>26</v>
-      </c>
-      <c r="D11" t="s">
-        <v>24</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1104,10 +1104,10 @@
         <v>1.655405</v>
       </c>
       <c r="I11">
-        <v>0.1368111390079702</v>
+        <v>0.3451171563299485</v>
       </c>
       <c r="J11">
-        <v>0.1690618383116417</v>
+        <v>0.441492428723751</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1116,28 +1116,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.026642</v>
+        <v>0.009278333333333333</v>
       </c>
       <c r="N11">
-        <v>0.079926</v>
+        <v>0.027835</v>
       </c>
       <c r="O11">
-        <v>0.001312520712894198</v>
+        <v>0.0008423045246020856</v>
       </c>
       <c r="P11">
-        <v>0.001637239033150188</v>
+        <v>0.001150205803574436</v>
       </c>
       <c r="Q11">
-        <v>0.01470110000333333</v>
+        <v>0.005119799797222222</v>
       </c>
       <c r="R11">
-        <v>0.13230990003</v>
+        <v>0.046078198175</v>
       </c>
       <c r="S11">
-        <v>0.0001795674537026082</v>
+        <v>0.000290693742294521</v>
       </c>
       <c r="T11">
-        <v>0.0002767946406999457</v>
+        <v>0.0005078071537522312</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,31 +1145,31 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.3344835</v>
+        <v>0.4520535</v>
       </c>
       <c r="H12">
-        <v>0.668967</v>
+        <v>0.904107</v>
       </c>
       <c r="I12">
-        <v>0.08293028343101366</v>
+        <v>0.2827309663115679</v>
       </c>
       <c r="J12">
-        <v>0.06831971075949632</v>
+        <v>0.2411231059807989</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>10.4223555</v>
+        <v>6.9192795</v>
       </c>
       <c r="N12">
-        <v>20.844711</v>
+        <v>13.838559</v>
       </c>
       <c r="O12">
-        <v>0.5134583541362048</v>
+        <v>0.6281451873364243</v>
       </c>
       <c r="P12">
-        <v>0.4269921487868165</v>
+        <v>0.5718408792853329</v>
       </c>
       <c r="Q12">
-        <v>3.48610594588425</v>
+        <v>3.12788451545325</v>
       </c>
       <c r="R12">
-        <v>13.944423783537</v>
+        <v>12.511538061813</v>
       </c>
       <c r="S12">
-        <v>0.04258124683853725</v>
+        <v>0.1775960957995881</v>
       </c>
       <c r="T12">
-        <v>0.02917198010169112</v>
+        <v>0.1378840489400705</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,31 +1207,31 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.3344835</v>
+        <v>0.4520535</v>
       </c>
       <c r="H13">
-        <v>0.668967</v>
+        <v>0.904107</v>
       </c>
       <c r="I13">
-        <v>0.08293028343101366</v>
+        <v>0.2827309663115679</v>
       </c>
       <c r="J13">
-        <v>0.06831971075949632</v>
+        <v>0.2411231059807989</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>6.248004</v>
       </c>
       <c r="O13">
-        <v>0.1026028409309336</v>
+        <v>0.1890685122662809</v>
       </c>
       <c r="P13">
-        <v>0.1279868381762944</v>
+        <v>0.2581818021036928</v>
       </c>
       <c r="Q13">
-        <v>0.696618081978</v>
+        <v>0.941477358738</v>
       </c>
       <c r="R13">
-        <v>4.179708491867999</v>
+        <v>5.648864152428</v>
       </c>
       <c r="S13">
-        <v>0.008508882679229534</v>
+        <v>0.05345552317213614</v>
       </c>
       <c r="T13">
-        <v>0.008744023765226896</v>
+        <v>0.06225359803096236</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
         <v>25</v>
       </c>
-      <c r="C14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" t="s">
-        <v>22</v>
-      </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.3344835</v>
+        <v>0.4520535</v>
       </c>
       <c r="H14">
-        <v>0.668967</v>
+        <v>0.904107</v>
       </c>
       <c r="I14">
-        <v>0.08293028343101366</v>
+        <v>0.2827309663115679</v>
       </c>
       <c r="J14">
-        <v>0.06831971075949632</v>
+        <v>0.2411231059807989</v>
       </c>
       <c r="K14">
         <v>2</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>1.6551325</v>
+        <v>0.07724199999999999</v>
       </c>
       <c r="N14">
-        <v>3.310265</v>
+        <v>0.231726</v>
       </c>
       <c r="O14">
-        <v>0.0815402630746324</v>
+        <v>0.007012173819577614</v>
       </c>
       <c r="P14">
-        <v>0.0678089115941109</v>
+        <v>0.009575447818900294</v>
       </c>
       <c r="Q14">
-        <v>0.55361451156375</v>
+        <v>0.034917516447</v>
       </c>
       <c r="R14">
-        <v>2.214458046255</v>
+        <v>0.209505098682</v>
       </c>
       <c r="S14">
-        <v>0.006762157127818682</v>
+        <v>0.001982558679953857</v>
       </c>
       <c r="T14">
-        <v>0.004632685227025913</v>
+        <v>0.002308861719250305</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.3344835</v>
+        <v>0.4520535</v>
       </c>
       <c r="H15">
-        <v>0.668967</v>
+        <v>0.904107</v>
       </c>
       <c r="I15">
-        <v>0.08293028343101366</v>
+        <v>0.2827309663115679</v>
       </c>
       <c r="J15">
-        <v>0.06831971075949632</v>
+        <v>0.2411231059807989</v>
       </c>
       <c r="K15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>6.111548333333334</v>
+        <v>1.9269465</v>
       </c>
       <c r="N15">
-        <v>18.334645</v>
+        <v>3.853893</v>
       </c>
       <c r="O15">
-        <v>0.3010860211453351</v>
+        <v>0.1749318220531151</v>
       </c>
       <c r="P15">
-        <v>0.3755748624096281</v>
+        <v>0.1592516649884999</v>
       </c>
       <c r="Q15">
-        <v>2.0442120769525</v>
+        <v>0.87108290963775</v>
       </c>
       <c r="R15">
-        <v>12.265272461715</v>
+        <v>3.484331638551</v>
       </c>
       <c r="S15">
-        <v>0.02496914907069881</v>
+        <v>0.04945864308772048</v>
       </c>
       <c r="T15">
-        <v>0.02565916596836341</v>
+        <v>0.03839925609464073</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,31 +1393,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
         <v>26</v>
       </c>
-      <c r="D16" t="s">
-        <v>24</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.3344835</v>
+        <v>0.4520535</v>
       </c>
       <c r="H16">
-        <v>0.668967</v>
+        <v>0.904107</v>
       </c>
       <c r="I16">
-        <v>0.08293028343101366</v>
+        <v>0.2827309663115679</v>
       </c>
       <c r="J16">
-        <v>0.06831971075949632</v>
+        <v>0.2411231059807989</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -1426,648 +1426,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.026642</v>
+        <v>0.009278333333333333</v>
       </c>
       <c r="N16">
-        <v>0.079926</v>
+        <v>0.027835</v>
       </c>
       <c r="O16">
-        <v>0.001312520712894198</v>
+        <v>0.0008423045246020856</v>
       </c>
       <c r="P16">
-        <v>0.001637239033150188</v>
+        <v>0.001150205803574436</v>
       </c>
       <c r="Q16">
-        <v>0.008911309406999999</v>
+        <v>0.004194303057499999</v>
       </c>
       <c r="R16">
-        <v>0.05346785644199999</v>
+        <v>0.025165818345</v>
       </c>
       <c r="S16">
-        <v>0.000108847714729392</v>
+        <v>0.0002381455721693535</v>
       </c>
       <c r="T16">
-        <v>0.0001118556971889783</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17">
-        <v>3</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>0.9905496666666666</v>
-      </c>
-      <c r="H17">
-        <v>2.971649</v>
-      </c>
-      <c r="I17">
-        <v>0.2455922776733763</v>
-      </c>
-      <c r="J17">
-        <v>0.3034861213763108</v>
-      </c>
-      <c r="K17">
-        <v>2</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>10.4223555</v>
-      </c>
-      <c r="N17">
-        <v>20.844711</v>
-      </c>
-      <c r="O17">
-        <v>0.5134583541362048</v>
-      </c>
-      <c r="P17">
-        <v>0.4269921487868165</v>
-      </c>
-      <c r="Q17">
-        <v>10.3238607664065</v>
-      </c>
-      <c r="R17">
-        <v>61.943164598439</v>
-      </c>
-      <c r="S17">
-        <v>0.1261014066827336</v>
-      </c>
-      <c r="T17">
-        <v>0.1295861910934475</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18">
-        <v>3</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>0.9905496666666666</v>
-      </c>
-      <c r="H18">
-        <v>2.971649</v>
-      </c>
-      <c r="I18">
-        <v>0.2455922776733763</v>
-      </c>
-      <c r="J18">
-        <v>0.3034861213763108</v>
-      </c>
-      <c r="K18">
-        <v>3</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="M18">
-        <v>2.082668</v>
-      </c>
-      <c r="N18">
-        <v>6.248004</v>
-      </c>
-      <c r="O18">
-        <v>0.1026028409309336</v>
-      </c>
-      <c r="P18">
-        <v>0.1279868381762944</v>
-      </c>
-      <c r="Q18">
-        <v>2.062986093177333</v>
-      </c>
-      <c r="R18">
-        <v>18.566874838596</v>
-      </c>
-      <c r="S18">
-        <v>0.02519846539998711</v>
-      </c>
-      <c r="T18">
-        <v>0.03884222910534113</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>22</v>
-      </c>
-      <c r="E19">
-        <v>3</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>0.9905496666666666</v>
-      </c>
-      <c r="H19">
-        <v>2.971649</v>
-      </c>
-      <c r="I19">
-        <v>0.2455922776733763</v>
-      </c>
-      <c r="J19">
-        <v>0.3034861213763108</v>
-      </c>
-      <c r="K19">
-        <v>2</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>1.6551325</v>
-      </c>
-      <c r="N19">
-        <v>3.310265</v>
-      </c>
-      <c r="O19">
-        <v>0.0815402630746324</v>
-      </c>
-      <c r="P19">
-        <v>0.0678089115941109</v>
-      </c>
-      <c r="Q19">
-        <v>1.639490946164167</v>
-      </c>
-      <c r="R19">
-        <v>9.836945676985</v>
-      </c>
-      <c r="S19">
-        <v>0.02002565893058527</v>
-      </c>
-      <c r="T19">
-        <v>0.02057906357444587</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20">
-        <v>3</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>0.9905496666666666</v>
-      </c>
-      <c r="H20">
-        <v>2.971649</v>
-      </c>
-      <c r="I20">
-        <v>0.2455922776733763</v>
-      </c>
-      <c r="J20">
-        <v>0.3034861213763108</v>
-      </c>
-      <c r="K20">
-        <v>3</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>6.111548333333334</v>
-      </c>
-      <c r="N20">
-        <v>18.334645</v>
-      </c>
-      <c r="O20">
-        <v>0.3010860211453351</v>
-      </c>
-      <c r="P20">
-        <v>0.3755748624096281</v>
-      </c>
-      <c r="Q20">
-        <v>6.053792164400556</v>
-      </c>
-      <c r="R20">
-        <v>54.484129479605</v>
-      </c>
-      <c r="S20">
-        <v>0.07394440170869718</v>
-      </c>
-      <c r="T20">
-        <v>0.1139817582791396</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21">
-        <v>3</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>0.9905496666666666</v>
-      </c>
-      <c r="H21">
-        <v>2.971649</v>
-      </c>
-      <c r="I21">
-        <v>0.2455922776733763</v>
-      </c>
-      <c r="J21">
-        <v>0.3034861213763108</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M21">
-        <v>0.026642</v>
-      </c>
-      <c r="N21">
-        <v>0.079926</v>
-      </c>
-      <c r="O21">
-        <v>0.001312520712894198</v>
-      </c>
-      <c r="P21">
-        <v>0.001637239033150188</v>
-      </c>
-      <c r="Q21">
-        <v>0.02639022421933333</v>
-      </c>
-      <c r="R21">
-        <v>0.237512017974</v>
-      </c>
-      <c r="S21">
-        <v>0.0003223449513731697</v>
-      </c>
-      <c r="T21">
-        <v>0.0004968793239366517</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22">
-        <v>3</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>0.1827426666666666</v>
-      </c>
-      <c r="H22">
-        <v>0.5482279999999999</v>
-      </c>
-      <c r="I22">
-        <v>0.0453083669048127</v>
-      </c>
-      <c r="J22">
-        <v>0.05598897761811442</v>
-      </c>
-      <c r="K22">
-        <v>2</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>10.4223555</v>
-      </c>
-      <c r="N22">
-        <v>20.844711</v>
-      </c>
-      <c r="O22">
-        <v>0.5134583541362048</v>
-      </c>
-      <c r="P22">
-        <v>0.4269921487868165</v>
-      </c>
-      <c r="Q22">
-        <v>1.904609037018</v>
-      </c>
-      <c r="R22">
-        <v>11.427654222108</v>
-      </c>
-      <c r="S22">
-        <v>0.02326395949954442</v>
-      </c>
-      <c r="T22">
-        <v>0.02390685386153565</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23">
-        <v>3</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>0.1827426666666666</v>
-      </c>
-      <c r="H23">
-        <v>0.5482279999999999</v>
-      </c>
-      <c r="I23">
-        <v>0.0453083669048127</v>
-      </c>
-      <c r="J23">
-        <v>0.05598897761811442</v>
-      </c>
-      <c r="K23">
-        <v>3</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>2.082668</v>
-      </c>
-      <c r="N23">
-        <v>6.248004</v>
-      </c>
-      <c r="O23">
-        <v>0.1026028409309336</v>
-      </c>
-      <c r="P23">
-        <v>0.1279868381762944</v>
-      </c>
-      <c r="Q23">
-        <v>0.3805923041013333</v>
-      </c>
-      <c r="R23">
-        <v>3.425330736912</v>
-      </c>
-      <c r="S23">
-        <v>0.004648767162374875</v>
-      </c>
-      <c r="T23">
-        <v>0.007165852218065779</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24">
-        <v>3</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>0.1827426666666666</v>
-      </c>
-      <c r="H24">
-        <v>0.5482279999999999</v>
-      </c>
-      <c r="I24">
-        <v>0.0453083669048127</v>
-      </c>
-      <c r="J24">
-        <v>0.05598897761811442</v>
-      </c>
-      <c r="K24">
-        <v>2</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <v>1.6551325</v>
-      </c>
-      <c r="N24">
-        <v>3.310265</v>
-      </c>
-      <c r="O24">
-        <v>0.0815402630746324</v>
-      </c>
-      <c r="P24">
-        <v>0.0678089115941109</v>
-      </c>
-      <c r="Q24">
-        <v>0.3024633267366666</v>
-      </c>
-      <c r="R24">
-        <v>1.81477996042</v>
-      </c>
-      <c r="S24">
-        <v>0.003694456156900395</v>
-      </c>
-      <c r="T24">
-        <v>0.003796551633551374</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>0.1827426666666666</v>
-      </c>
-      <c r="H25">
-        <v>0.5482279999999999</v>
-      </c>
-      <c r="I25">
-        <v>0.0453083669048127</v>
-      </c>
-      <c r="J25">
-        <v>0.05598897761811442</v>
-      </c>
-      <c r="K25">
-        <v>3</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>6.111548333333334</v>
-      </c>
-      <c r="N25">
-        <v>18.334645</v>
-      </c>
-      <c r="O25">
-        <v>0.3010860211453351</v>
-      </c>
-      <c r="P25">
-        <v>0.3755748624096281</v>
-      </c>
-      <c r="Q25">
-        <v>1.116840639895555</v>
-      </c>
-      <c r="R25">
-        <v>10.05156575906</v>
-      </c>
-      <c r="S25">
-        <v>0.01364171591596304</v>
-      </c>
-      <c r="T25">
-        <v>0.02102805256537907</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26">
-        <v>3</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>0.1827426666666666</v>
-      </c>
-      <c r="H26">
-        <v>0.5482279999999999</v>
-      </c>
-      <c r="I26">
-        <v>0.0453083669048127</v>
-      </c>
-      <c r="J26">
-        <v>0.05598897761811442</v>
-      </c>
-      <c r="K26">
-        <v>1</v>
-      </c>
-      <c r="L26">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M26">
-        <v>0.026642</v>
-      </c>
-      <c r="N26">
-        <v>0.079926</v>
-      </c>
-      <c r="O26">
-        <v>0.001312520712894198</v>
-      </c>
-      <c r="P26">
-        <v>0.001637239033150188</v>
-      </c>
-      <c r="Q26">
-        <v>0.004868630125333333</v>
-      </c>
-      <c r="R26">
-        <v>0.043817671128</v>
-      </c>
-      <c r="S26">
-        <v>5.946817002997666E-05</v>
-      </c>
-      <c r="T26">
-        <v>9.166733958254916E-05</v>
+        <v>0.0002773411958750086</v>
       </c>
     </row>
   </sheetData>
